--- a/imhr/dist/roi/raw/2/metadata.xlsx
+++ b/imhr/dist/roi/raw/2/metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdl-admin/Desktop/roi/raw/2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdl-admin/Desktop/mdl/imhr/dist/roi/raw/2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2580" windowWidth="15240" windowHeight="16580"/>
+    <workbookView xWindow="35660" yWindow="9560" windowWidth="15240" windowHeight="16580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>image</t>
   </si>
@@ -141,13 +141,28 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>ground</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +173,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,14 +211,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,7 +669,7 @@
         <v>5.8499999049999998</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>2</v>
@@ -639,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
@@ -685,34 +724,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4640</v>
+        <v>2691</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>7.1799998279999997</v>
+        <v>3.039999962</v>
       </c>
       <c r="E6" s="1">
-        <v>5.5199999809999998</v>
+        <v>5.8499999049999998</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>10</v>
@@ -720,34 +759,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>4640</v>
+        <v>2691</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
-        <v>7.1799998279999997</v>
+        <v>3.039999962</v>
       </c>
       <c r="E7" s="1">
-        <v>5.5199999809999998</v>
+        <v>5.8499999049999998</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>10</v>
@@ -755,34 +794,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>4640</v>
+        <v>2691</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
-        <v>7.1799998279999997</v>
+        <v>3.039999962</v>
       </c>
       <c r="E8" s="1">
-        <v>5.5199999809999998</v>
+        <v>5.8499999049999998</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>10</v>
@@ -790,34 +829,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>9421</v>
+        <v>2691</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>2.210000038</v>
+        <v>3.039999962</v>
       </c>
       <c r="E9" s="1">
-        <v>5.0399999619999996</v>
+        <v>5.8499999049999998</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>10</v>
@@ -825,19 +864,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9421</v>
+        <v>4640</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>2.210000038</v>
+        <v>7.1799998279999997</v>
       </c>
       <c r="E10" s="1">
-        <v>5.0399999619999996</v>
+        <v>5.5199999809999998</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -846,13 +885,13 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>10</v>
@@ -860,40 +899,218 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9421</v>
+        <v>4640</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>2.210000038</v>
+        <v>7.1799998279999997</v>
       </c>
       <c r="E11" s="1">
-        <v>5.0399999619999996</v>
+        <v>5.5199999809999998</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>4640</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.1799998279999997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.5199999809999998</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>4640</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.1799998279999997</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5.5199999809999998</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>9421</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.210000038</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.0399999619999996</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>9421</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.210000038</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.0399999619999996</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>9421</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.210000038</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.0399999619999996</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K12">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>